--- a/data/renewables/Marine/tidal_stream_future_deployment_scenarios.xlsx
+++ b/data/renewables/Marine/tidal_stream_future_deployment_scenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1100626_ed_ac_uk/Documents/Year 2 - Energy System Modelling/Q3 - Analysis/Deployment scenarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/alyden_ed_ac_uk/Documents/Python/PyPSA-GB v0.0.1/data/renewables/Marine/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_0F3074ADC780F203E633EB2CCC697B276867ED9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B358E2DD-E9A0-42FE-A3A1-F39C8615638E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tidal_stream_CT" sheetId="4" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="59">
   <si>
     <t>Site Name</t>
   </si>
@@ -205,13 +206,16 @@
   <si>
     <t>Westray South</t>
   </si>
+  <si>
+    <t>S.W.Penisula</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,7 +249,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,25 +529,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -598,10 +604,10 @@
         <v>-2.0809000000000002</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -624,7 +630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -647,7 +653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -670,7 +676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -693,7 +699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -716,7 +722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -739,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -762,7 +768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -785,7 +791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -808,7 +814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -831,7 +837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -866,7 +872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -889,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -912,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -935,7 +941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -955,10 +961,10 @@
         <v>-2.4398</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -981,7 +987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1132,7 +1138,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,25 +1146,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1213,10 +1221,10 @@
         <v>-2.0809000000000002</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1578,10 +1586,10 @@
         <v>-2.4398</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1604,7 +1612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1650,7 +1658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1673,7 +1681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1708,7 +1716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1763,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,25 +1771,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1836,10 +1846,10 @@
         <v>-2.0809000000000002</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1862,7 +1872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2023,7 +2033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2069,7 +2079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2150,7 +2160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2173,7 +2183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2193,10 +2203,10 @@
         <v>-2.4398</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2219,7 +2229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2346,7 +2356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2370,7 +2380,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2378,25 +2388,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2451,10 +2463,10 @@
         <v>-2.0809000000000002</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2615,7 +2627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2796,7 +2808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2816,10 +2828,10 @@
         <v>-2.4398</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2842,7 +2854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2981,7 +2993,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2989,22 +3001,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3179,7 +3191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3249,7 +3261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3284,7 +3296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -3319,7 +3331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -3354,7 +3366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3564,7 +3576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3599,7 +3611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3634,7 +3646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3774,7 +3786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3809,7 +3821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3833,7 +3845,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3842,22 +3854,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3892,7 +3904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -3962,7 +3974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4102,7 +4114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4137,7 +4149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4172,7 +4184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4347,7 +4359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4522,7 +4534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -4592,7 +4604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -4662,7 +4674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -4686,7 +4698,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4694,22 +4706,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4744,7 +4756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4779,7 +4791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -4814,7 +4826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -4849,7 +4861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4919,7 +4931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4954,7 +4966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4989,7 +5001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5024,7 +5036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -5059,7 +5071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -5094,7 +5106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -5129,7 +5141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -5199,7 +5211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -5234,7 +5246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -5269,7 +5281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -5304,7 +5316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -5409,7 +5421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -5444,7 +5456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -5479,7 +5491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -5514,7 +5526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -5538,7 +5550,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5546,6 +5558,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D845749611EA4C8624BB0749477606" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db22c31203cda416f2dbeab8713e41c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e024f9b-2e2d-4f1c-b440-57efc902fc77" xmlns:ns4="5b3066ba-4cd6-475a-ab49-b036cbc58b74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0a8c95347e59b8a6ed0a26052ccff3c" ns3:_="" ns4:_="">
     <xsd:import namespace="3e024f9b-2e2d-4f1c-b440-57efc902fc77"/>
@@ -5774,7 +5792,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5783,13 +5801,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77AB08C1-3C8C-4101-907B-C2C793A5097D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5b3066ba-4cd6-475a-ab49-b036cbc58b74"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e024f9b-2e2d-4f1c-b440-57efc902fc77"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68F7093F-C7B1-43B9-87BB-7898FA60B995}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5808,27 +5837,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49358493-866F-4FA1-80FF-A0597C73AEBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77AB08C1-3C8C-4101-907B-C2C793A5097D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5b3066ba-4cd6-475a-ab49-b036cbc58b74"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e024f9b-2e2d-4f1c-b440-57efc902fc77"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>